--- a/开题/测试/IPC性能.xlsx
+++ b/开题/测试/IPC性能.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ctrlz/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ctrlz/workSpace/openingreport-ldhai2023/开题/测试/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18AFA16-C5CE-BC47-A63C-1E2D304045E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9753C8BC-D926-6546-9706-699C4CEA80CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16780" activeTab="1" xr2:uid="{DA4805F4-04B1-CA43-9DDD-E0DA8EA5F629}"/>
+    <workbookView xWindow="-51200" yWindow="-4620" windowWidth="51200" windowHeight="26700" activeTab="1" xr2:uid="{DA4805F4-04B1-CA43-9DDD-E0DA8EA5F629}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>async-smp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,54 @@
   </si>
   <si>
     <t>throughput(RPS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>throughput(RPS Read)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>throughput(RPS Write)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并发量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>up_server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>up_client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smp_server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smp_client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>async-up-min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>async-smp-min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>async-up-max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>async-smp-max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,11 +214,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -179,14 +226,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>cpu</a:t>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>单次</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t> cycles</a:t>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Call</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>的平均周期数</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -203,11 +254,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -222,105 +272,131 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
+              <c:f>Sheet1!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>async-smp</c:v>
+                  <c:v>async-up</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$G$4</c:f>
+              <c:f>Sheet1!$B$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
                   <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$G$5</c:f>
+              <c:f>Sheet1!$B$3:$I$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>39138</c:v>
+                  <c:v>1326</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63747</c:v>
+                  <c:v>793</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108751</c:v>
+                  <c:v>524</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>199497</c:v>
+                  <c:v>387</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>378442</c:v>
+                  <c:v>318</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>736947</c:v>
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5365-644E-982E-A8C1F139C1AB}"/>
+              <c16:uniqueId val="{00000000-4B9F-0F48-8753-FE79625C7266}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -329,295 +405,123 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$6</c:f>
+              <c:f>Sheet1!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>async-up</c:v>
+                  <c:v>async-smp</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$G$4</c:f>
+              <c:f>Sheet1!$B$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
                   <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$G$6</c:f>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>52179</c:v>
+                  <c:v>1248</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79119</c:v>
+                  <c:v>642</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>123977</c:v>
+                  <c:v>434</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>221980</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>423488</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>820709</c:v>
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5365-644E-982E-A8C1F139C1AB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>sync-smp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$4:$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2048</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$7:$G$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>125188</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>248613</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>483439</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>940805</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1860703</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3680432</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5365-644E-982E-A8C1F139C1AB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>sync-up</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$4:$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2048</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$8:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>52830</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>94803</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>183766</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>358983</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>702288</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1349696</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5365-644E-982E-A8C1F139C1AB}"/>
+              <c16:uniqueId val="{00000001-4B9F-0F48-8753-FE79625C7266}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -629,76 +533,24 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1081317856"/>
-        <c:axId val="1081319504"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1081317856"/>
+        <c:axId val="930017600"/>
+        <c:axId val="930019248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="930017600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1081319504"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1081319504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -724,9 +576,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -737,9 +588,70 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1081317856"/>
+        <c:crossAx val="930019248"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="930019248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="930017600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -750,7 +662,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -764,11 +676,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -793,11 +704,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -857,8 +771,374 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>单次</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>RPS</a:t>
+              <a:t>Call</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>的周期数</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$18:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>async-up-min</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>async-smp-min</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>async-up-max</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>async-smp-max</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sync-up</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sync-smp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1248</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1813</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-45CA-904A-B0E6-1632FE429FCB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="315"/>
+        <c:overlap val="-40"/>
+        <c:axId val="805892144"/>
+        <c:axId val="805889472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="805892144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="805889472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="805889472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="805892144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>用户态中断频率</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
@@ -903,11 +1183,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$3</c:f>
+              <c:f>Sheet1!$M$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>单核同步</c:v>
+                  <c:v>up_server</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -952,7 +1232,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$G$2</c:f>
+              <c:f>Sheet1!$N$2:$S$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -979,27 +1259,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$3:$G$3</c:f>
+              <c:f>Sheet1!$N$3:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>496</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>389</c:v>
+                  <c:v>0.50029999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>366</c:v>
+                  <c:v>0.25040000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>360</c:v>
+                  <c:v>0.12559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>338</c:v>
+                  <c:v>6.3399999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>312</c:v>
+                  <c:v>3.1899999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1007,7 +1287,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6965-7543-8151-BF021CDEE1D4}"/>
+              <c16:uniqueId val="{00000000-3DEB-5C48-A80A-F4C64B20C66B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1016,11 +1296,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$4</c:f>
+              <c:f>Sheet1!$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>多核同步</c:v>
+                  <c:v>up_client</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1065,7 +1345,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$G$2</c:f>
+              <c:f>Sheet1!$N$2:$S$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1092,27 +1372,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$4:$G$4</c:f>
+              <c:f>Sheet1!$N$4:$S$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>508</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>409</c:v>
+                  <c:v>0.50049999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>403</c:v>
+                  <c:v>0.25040000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>396</c:v>
+                  <c:v>0.12559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>365</c:v>
+                  <c:v>6.3399999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>336</c:v>
+                  <c:v>3.1899999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1120,7 +1400,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6965-7543-8151-BF021CDEE1D4}"/>
+              <c16:uniqueId val="{00000001-3DEB-5C48-A80A-F4C64B20C66B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1129,11 +1409,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$5</c:f>
+              <c:f>Sheet1!$M$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>单核异步</c:v>
+                  <c:v>smp_server</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1178,7 +1458,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$G$2</c:f>
+              <c:f>Sheet1!$N$2:$S$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1205,27 +1485,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$5:$G$5</c:f>
+              <c:f>Sheet1!$N$5:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>486</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>430</c:v>
+                  <c:v>0.50170000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>395</c:v>
+                  <c:v>0.49690000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>383</c:v>
+                  <c:v>0.44230000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>361</c:v>
+                  <c:v>0.42559999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>347</c:v>
+                  <c:v>0.42149999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1233,7 +1513,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6965-7543-8151-BF021CDEE1D4}"/>
+              <c16:uniqueId val="{00000002-3DEB-5C48-A80A-F4C64B20C66B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1242,11 +1522,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$6</c:f>
+              <c:f>Sheet1!$M$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>多核异步</c:v>
+                  <c:v>smp_client</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1291,7 +1571,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$G$2</c:f>
+              <c:f>Sheet1!$N$2:$S$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1318,27 +1598,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$6:$G$6</c:f>
+              <c:f>Sheet1!$N$6:$S$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>526</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>453</c:v>
+                  <c:v>0.50049999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>462</c:v>
+                  <c:v>0.31040000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>450</c:v>
+                  <c:v>0.13189999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>441</c:v>
+                  <c:v>0.10290000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>416</c:v>
+                  <c:v>0.1065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1346,7 +1626,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6965-7543-8151-BF021CDEE1D4}"/>
+              <c16:uniqueId val="{00000003-3DEB-5C48-A80A-F4C64B20C66B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1358,11 +1638,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1324038255"/>
-        <c:axId val="1323761519"/>
+        <c:axId val="929224688"/>
+        <c:axId val="929225504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1324038255"/>
+        <c:axId val="929224688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1413,6 +1693,746 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
+        <c:crossAx val="929225504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="929225504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="929224688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>RPS(call)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>单核同步</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6965-7543-8151-BF021CDEE1D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>多核同步</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>362</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6965-7543-8151-BF021CDEE1D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>单核异步</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>349</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6965-7543-8151-BF021CDEE1D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>多核异步</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>419</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6965-7543-8151-BF021CDEE1D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1324038255"/>
+        <c:axId val="1323761519"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1324038255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="1323761519"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -1421,7 +2441,7 @@
         <c:axId val="1323761519"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="300"/>
+          <c:min val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1564,7 +2584,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1728,22 +2748,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.95</c:v>
+                  <c:v>4.17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.13</c:v>
+                  <c:v>5.0599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.92</c:v>
+                  <c:v>10.76</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.21</c:v>
+                  <c:v>22.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.31</c:v>
+                  <c:v>45.64</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>102.51</c:v>
+                  <c:v>97.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1841,22 +2861,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.96</c:v>
+                  <c:v>2.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.88</c:v>
+                  <c:v>4.9400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.92</c:v>
+                  <c:v>9.83</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.28</c:v>
+                  <c:v>20.11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.85</c:v>
+                  <c:v>41.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>95.23</c:v>
+                  <c:v>88.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1954,22 +2974,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.0499999999999998</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6500000000000004</c:v>
+                  <c:v>4.66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.1</c:v>
+                  <c:v>9.64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.88</c:v>
+                  <c:v>21.37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.25</c:v>
+                  <c:v>42.87</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91.99</c:v>
+                  <c:v>91.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2067,22 +3087,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.9</c:v>
+                  <c:v>2.0499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.41</c:v>
+                  <c:v>4.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.65</c:v>
+                  <c:v>8.66</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.739999999999998</c:v>
+                  <c:v>17.239999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.200000000000003</c:v>
+                  <c:v>35.590000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76.58</c:v>
+                  <c:v>76.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2133,8 +3153,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2245,7 +3266,1487 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>RPS(write)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>单核同步</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$55:$G$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$56:$G$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>814</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>757</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>637</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9BCC-1643-9A63-9E409DA24E68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>多核同步</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$55:$G$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$57:$G$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>865</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>827</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>884</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>744</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9BCC-1643-9A63-9E409DA24E68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>单核异步</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$55:$G$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$58:$G$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>751</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9BCC-1643-9A63-9E409DA24E68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>多核异步</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$55:$G$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$59:$G$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>953</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1068</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1057</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>973</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>834</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9BCC-1643-9A63-9E409DA24E68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="929255664"/>
+        <c:axId val="929257312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="929255664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="929257312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="929257312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="929255664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>RPS(read)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>单核同步</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$46:$G$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$47:$G$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3959</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4564</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3641</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2880</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C70C-2A4A-A5E8-A636F7A61F6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>多核同步</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$46:$G$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$48:$G$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3842</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4695</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4789</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3715</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2930</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C70C-2A4A-A5E8-A636F7A61F6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>单核异步</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$46:$G$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$49:$G$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6340</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12235</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7266</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5109</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5327</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C70C-2A4A-A5E8-A636F7A61F6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>多核异步</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$46:$G$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$50:$G$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10404</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15780</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8149</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C70C-2A4A-A5E8-A636F7A61F6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="662331792"/>
+        <c:axId val="662333440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="662331792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="662333440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="662333440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="662331792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="75000"/>
@@ -2427,510 +4928,167 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3468,8 +5626,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3669,6 +5827,2707 @@
       </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
   <cs:dataPointMarkerLayout symbol="circle" size="3"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
@@ -4010,23 +8869,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>786620</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>107108</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>113427</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>189239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>91807</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>356</xdr:rowOff>
+      <xdr:colOff>329618</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>96947</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95D2971D-F0F7-744D-BA72-1EA2C624EB68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{754D94A2-9671-F440-A8E6-7CF3F03189D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4044,6 +8903,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>617549</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>131071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581678</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>67863</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83C43E0A-D6A0-5A41-8802-7516ABD0F2A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>31022</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>67861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>649542</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>29083</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF850C07-B161-D644-BFAE-562260386B3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4051,16 +8982,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>219790</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>702389</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>50799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>123902</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>185854</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>801076</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4087,16 +9018,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>200250</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>99613</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>681547</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>83328</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>131380</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>98533</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>97693</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>68385</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4116,6 +9047,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>713154</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>68384</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>117231</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>19538</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E671DDB-153F-F648-805E-62CFED90917C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>693613</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>166077</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>156308</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E0B0117-6A64-064D-9142-723423DEA348}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4421,124 +9424,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE31C07-FDF3-8D4E-AAE0-9812488F355C}">
-  <dimension ref="A4:G8"/>
+  <dimension ref="A2:S23"/>
   <sheetViews>
-    <sheetView zoomScale="83" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A14" zoomScale="131" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:7">
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <v>64</v>
+      </c>
+      <c r="I2">
+        <v>128</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <v>8</v>
+      </c>
+      <c r="R2">
+        <v>16</v>
+      </c>
+      <c r="S2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1326</v>
+      </c>
+      <c r="C3">
+        <v>793</v>
+      </c>
+      <c r="D3">
+        <v>524</v>
+      </c>
+      <c r="E3">
+        <v>387</v>
+      </c>
+      <c r="F3">
+        <v>318</v>
+      </c>
+      <c r="G3">
+        <v>283</v>
+      </c>
+      <c r="H3">
+        <v>262</v>
+      </c>
+      <c r="I3">
+        <v>251</v>
+      </c>
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0.50029999999999997</v>
+      </c>
+      <c r="P3">
+        <v>0.25040000000000001</v>
+      </c>
+      <c r="Q3">
+        <f>0.1256</f>
+        <v>0.12559999999999999</v>
+      </c>
+      <c r="R3">
+        <f>0.0634</f>
+        <v>6.3399999999999998E-2</v>
+      </c>
+      <c r="S3">
+        <f>0.0319</f>
+        <v>3.1899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
       <c r="B4">
-        <v>64</v>
+        <v>1248</v>
       </c>
       <c r="C4">
-        <v>128</v>
+        <v>642</v>
       </c>
       <c r="D4">
-        <v>256</v>
+        <v>434</v>
       </c>
       <c r="E4">
-        <v>512</v>
+        <v>344</v>
       </c>
       <c r="F4">
-        <v>1024</v>
+        <v>315</v>
       </c>
       <c r="G4">
-        <v>2048</v>
+        <v>307</v>
+      </c>
+      <c r="H4">
+        <v>298</v>
+      </c>
+      <c r="I4">
+        <v>298</v>
+      </c>
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0.50049999999999994</v>
+      </c>
+      <c r="P4">
+        <v>0.25040000000000001</v>
+      </c>
+      <c r="Q4">
+        <v>0.12559999999999999</v>
+      </c>
+      <c r="R4">
+        <v>6.3399999999999998E-2</v>
+      </c>
+      <c r="S4">
+        <f>0.0319</f>
+        <v>3.1899999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>39138</v>
-      </c>
-      <c r="C5">
-        <v>63747</v>
-      </c>
-      <c r="D5">
-        <v>108751</v>
-      </c>
-      <c r="E5">
-        <v>199497</v>
-      </c>
-      <c r="F5">
-        <v>378442</v>
-      </c>
-      <c r="G5">
-        <v>736947</v>
+    <row r="5" spans="1:19">
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0.50170000000000003</v>
+      </c>
+      <c r="P5">
+        <v>0.49690000000000001</v>
+      </c>
+      <c r="Q5">
+        <v>0.44230000000000003</v>
+      </c>
+      <c r="R5">
+        <v>0.42559999999999998</v>
+      </c>
+      <c r="S5">
+        <v>0.42149999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+    <row r="6" spans="1:19">
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6">
         <v>1</v>
       </c>
-      <c r="B6">
-        <v>52179</v>
-      </c>
-      <c r="C6">
-        <v>79119</v>
-      </c>
-      <c r="D6">
-        <v>123977</v>
-      </c>
-      <c r="E6">
-        <v>221980</v>
-      </c>
-      <c r="F6">
-        <v>423488</v>
-      </c>
-      <c r="G6">
-        <v>820709</v>
+      <c r="O6">
+        <v>0.50049999999999994</v>
+      </c>
+      <c r="P6">
+        <v>0.31040000000000001</v>
+      </c>
+      <c r="Q6">
+        <v>0.13189999999999999</v>
+      </c>
+      <c r="R6">
+        <f>0.1029</f>
+        <v>0.10290000000000001</v>
+      </c>
+      <c r="S6">
+        <v>0.1065</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>2</v>
       </c>
-      <c r="B7">
-        <v>125188</v>
-      </c>
-      <c r="C7">
-        <v>248613</v>
-      </c>
-      <c r="D7">
-        <v>483439</v>
-      </c>
-      <c r="E7">
-        <v>940805</v>
-      </c>
-      <c r="F7">
-        <v>1860703</v>
-      </c>
-      <c r="G7">
-        <v>3680432</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>52830</v>
-      </c>
-      <c r="C8">
-        <v>94803</v>
-      </c>
-      <c r="D8">
-        <v>183766</v>
-      </c>
-      <c r="E8">
-        <v>358983</v>
-      </c>
-      <c r="F8">
-        <v>702288</v>
-      </c>
-      <c r="G8">
-        <v>1349696</v>
+      <c r="B23">
+        <v>1813</v>
       </c>
     </row>
   </sheetData>
@@ -4550,10 +9693,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78717FEF-7D4F-0E48-A95B-BE4CC901AD51}">
-  <dimension ref="A2:G39"/>
+  <dimension ref="A2:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4590,22 +9733,22 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>496</v>
+        <v>233</v>
       </c>
       <c r="C3">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D3">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E3">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F3">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="G3">
-        <v>312</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4613,22 +9756,22 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>508</v>
+        <v>463</v>
       </c>
       <c r="C4">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D4">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E4">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F4">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="G4">
-        <v>336</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4636,22 +9779,22 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C5">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D5">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="E5">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F5">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="G5">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4659,22 +9802,22 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>526</v>
+        <v>485</v>
       </c>
       <c r="C6">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D6">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E6">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="F6">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="G6">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4705,22 +9848,22 @@
         <v>4</v>
       </c>
       <c r="B22">
-        <v>1.95</v>
+        <v>4.17</v>
       </c>
       <c r="C22">
-        <v>5.13</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="D22">
-        <v>10.92</v>
+        <v>10.76</v>
       </c>
       <c r="E22">
-        <v>22.21</v>
+        <v>22.07</v>
       </c>
       <c r="F22">
-        <v>47.31</v>
+        <v>45.64</v>
       </c>
       <c r="G22">
-        <v>102.51</v>
+        <v>97.15</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4728,22 +9871,22 @@
         <v>5</v>
       </c>
       <c r="B23">
-        <v>1.96</v>
+        <v>2.15</v>
       </c>
       <c r="C23">
-        <v>4.88</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="D23">
-        <v>9.92</v>
+        <v>9.83</v>
       </c>
       <c r="E23">
-        <v>20.28</v>
+        <v>20.11</v>
       </c>
       <c r="F23">
-        <v>43.85</v>
+        <v>41.02</v>
       </c>
       <c r="G23">
-        <v>95.23</v>
+        <v>88.22</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4751,22 +9894,22 @@
         <v>6</v>
       </c>
       <c r="B24">
-        <v>2.0499999999999998</v>
+        <v>2.08</v>
       </c>
       <c r="C24">
-        <v>4.6500000000000004</v>
+        <v>4.66</v>
       </c>
       <c r="D24">
-        <v>10.1</v>
+        <v>9.64</v>
       </c>
       <c r="E24">
-        <v>20.88</v>
+        <v>21.37</v>
       </c>
       <c r="F24">
-        <v>44.25</v>
+        <v>42.87</v>
       </c>
       <c r="G24">
-        <v>91.99</v>
+        <v>91.55</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4774,22 +9917,22 @@
         <v>7</v>
       </c>
       <c r="B25">
-        <v>1.9</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="C25">
-        <v>4.41</v>
+        <v>4.45</v>
       </c>
       <c r="D25">
-        <v>8.65</v>
+        <v>8.66</v>
       </c>
       <c r="E25">
-        <v>17.739999999999998</v>
+        <v>17.239999999999998</v>
       </c>
       <c r="F25">
-        <v>36.200000000000003</v>
+        <v>35.590000000000003</v>
       </c>
       <c r="G25">
-        <v>76.58</v>
+        <v>76.06</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -4820,22 +9963,22 @@
         <v>4</v>
       </c>
       <c r="B36">
-        <v>4.7E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="C36">
-        <v>2.2799999999999998</v>
+        <v>2.39</v>
       </c>
       <c r="D36">
-        <v>2.36</v>
+        <v>10.58</v>
       </c>
       <c r="E36">
-        <v>2.5299999999999998</v>
+        <v>22.14</v>
       </c>
       <c r="F36">
-        <v>3.15</v>
+        <v>48.37</v>
       </c>
       <c r="G36">
-        <v>11.18</v>
+        <v>126.99</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -4843,22 +9986,22 @@
         <v>5</v>
       </c>
       <c r="B37">
-        <v>4.8000000000000001E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="C37">
-        <v>0.18</v>
+        <v>4.32</v>
       </c>
       <c r="D37">
-        <v>2.21</v>
+        <v>8.86</v>
       </c>
       <c r="E37">
-        <v>2.2999999999999998</v>
+        <v>19.41</v>
       </c>
       <c r="F37">
-        <v>23.05</v>
+        <v>49.35</v>
       </c>
       <c r="G37">
-        <v>114.64</v>
+        <v>104.28</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -4866,22 +10009,22 @@
         <v>6</v>
       </c>
       <c r="B38">
-        <v>0.18</v>
+        <v>0.04</v>
       </c>
       <c r="C38">
-        <v>1.66</v>
+        <v>2.4</v>
       </c>
       <c r="D38">
-        <v>19.399999999999999</v>
+        <v>18.11</v>
       </c>
       <c r="E38">
-        <v>449</v>
+        <v>543.13</v>
       </c>
       <c r="F38">
-        <v>1152.58</v>
+        <v>1270.47</v>
       </c>
       <c r="G38">
-        <v>1224.3800000000001</v>
+        <v>5444.34</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -4889,22 +10032,252 @@
         <v>7</v>
       </c>
       <c r="B39">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="C39">
-        <v>0.36</v>
+        <v>0.48</v>
       </c>
       <c r="D39">
-        <v>0.93</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="E39">
-        <v>3.16</v>
+        <v>2.78</v>
       </c>
       <c r="F39">
-        <v>10.11</v>
+        <v>2.78</v>
       </c>
       <c r="G39">
-        <v>46.35</v>
+        <v>11.22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>16</v>
+      </c>
+      <c r="G46">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>3320</v>
+      </c>
+      <c r="C47">
+        <v>3959</v>
+      </c>
+      <c r="D47">
+        <v>4564</v>
+      </c>
+      <c r="E47">
+        <v>3641</v>
+      </c>
+      <c r="F47">
+        <v>2880</v>
+      </c>
+      <c r="G47">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>3842</v>
+      </c>
+      <c r="C48">
+        <v>4695</v>
+      </c>
+      <c r="D48">
+        <v>4789</v>
+      </c>
+      <c r="E48">
+        <v>3715</v>
+      </c>
+      <c r="F48">
+        <v>3009</v>
+      </c>
+      <c r="G48">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>6340</v>
+      </c>
+      <c r="C49">
+        <v>7901</v>
+      </c>
+      <c r="D49">
+        <v>12235</v>
+      </c>
+      <c r="E49">
+        <v>7266</v>
+      </c>
+      <c r="F49">
+        <v>5109</v>
+      </c>
+      <c r="G49">
+        <v>5327</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>6889</v>
+      </c>
+      <c r="C50">
+        <v>10404</v>
+      </c>
+      <c r="D50">
+        <v>15780</v>
+      </c>
+      <c r="E50">
+        <v>8149</v>
+      </c>
+      <c r="F50">
+        <v>5934</v>
+      </c>
+      <c r="G50">
+        <v>5203</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>8</v>
+      </c>
+      <c r="F55">
+        <v>16</v>
+      </c>
+      <c r="G55">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>392</v>
+      </c>
+      <c r="C56">
+        <v>814</v>
+      </c>
+      <c r="D56">
+        <v>726</v>
+      </c>
+      <c r="E56">
+        <v>757</v>
+      </c>
+      <c r="F56">
+        <v>713</v>
+      </c>
+      <c r="G56">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57">
+        <v>865</v>
+      </c>
+      <c r="C57">
+        <v>827</v>
+      </c>
+      <c r="D57">
+        <v>889</v>
+      </c>
+      <c r="E57">
+        <v>884</v>
+      </c>
+      <c r="F57">
+        <v>798</v>
+      </c>
+      <c r="G57">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58">
+        <v>863</v>
+      </c>
+      <c r="C58">
+        <v>920</v>
+      </c>
+      <c r="D58">
+        <v>949</v>
+      </c>
+      <c r="E58">
+        <v>802</v>
+      </c>
+      <c r="F58">
+        <v>783</v>
+      </c>
+      <c r="G58">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59">
+        <v>953</v>
+      </c>
+      <c r="C59">
+        <v>1068</v>
+      </c>
+      <c r="D59">
+        <v>1082</v>
+      </c>
+      <c r="E59">
+        <v>1057</v>
+      </c>
+      <c r="F59">
+        <v>973</v>
+      </c>
+      <c r="G59">
+        <v>834</v>
       </c>
     </row>
   </sheetData>

--- a/开题/测试/IPC性能.xlsx
+++ b/开题/测试/IPC性能.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ctrlz/workSpace/openingreport-ldhai2023/开题/测试/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9753C8BC-D926-6546-9706-699C4CEA80CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3222AB8F-188B-104D-874E-704B17910FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51200" yWindow="-4620" windowWidth="51200" windowHeight="26700" activeTab="1" xr2:uid="{DA4805F4-04B1-CA43-9DDD-E0DA8EA5F629}"/>
   </bookViews>
@@ -564,8 +564,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1669,8 +1670,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -9695,8 +9697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78717FEF-7D4F-0E48-A95B-BE4CC901AD51}">
   <dimension ref="A2:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9963,7 +9965,7 @@
         <v>4</v>
       </c>
       <c r="B36">
-        <v>2.4E-2</v>
+        <v>23.2</v>
       </c>
       <c r="C36">
         <v>2.39</v>

--- a/开题/测试/IPC性能.xlsx
+++ b/开题/测试/IPC性能.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ctrlz/workSpace/openingreport-ldhai2023/开题/测试/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3222AB8F-188B-104D-874E-704B17910FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BECE94-3450-B946-9F72-16D6BF66BD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-4620" windowWidth="51200" windowHeight="26700" activeTab="1" xr2:uid="{DA4805F4-04B1-CA43-9DDD-E0DA8EA5F629}"/>
+    <workbookView xWindow="-51200" yWindow="-4620" windowWidth="51200" windowHeight="26600" activeTab="2" xr2:uid="{DA4805F4-04B1-CA43-9DDD-E0DA8EA5F629}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="qemu_ipc" sheetId="1" r:id="rId1"/>
+    <sheet name="qemu_net" sheetId="2" r:id="rId2"/>
+    <sheet name="fpga_ipc" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
   <si>
     <t>async-smp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,19 +114,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>async-up-min</t>
+    <t>服务端负载0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>async-smp-min</t>
+    <t>服务端负载1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>async-up-max</t>
+    <t>服务端负载2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>async-smp-max</t>
+    <t>服务端负载3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smp server 8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -280,7 +285,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
+              <c:f>qemu_ipc!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -329,7 +334,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$I$2</c:f>
+              <c:f>qemu_ipc!$B$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -362,7 +367,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$I$3</c:f>
+              <c:f>qemu_ipc!$B$3:$I$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -405,7 +410,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
+              <c:f>qemu_ipc!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -454,7 +459,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$I$2</c:f>
+              <c:f>qemu_ipc!$B$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -487,7 +492,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:f>qemu_ipc!$B$4:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -522,6 +527,256 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4B9F-0F48-8753-FE79625C7266}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>qemu_ipc!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sync-up</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>qemu_ipc!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>qemu_ipc!$B$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>535</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-88FB-EE4E-B401-332EFC38C4B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>qemu_ipc!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sync-smp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>qemu_ipc!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>qemu_ipc!$B$6:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1813</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1813</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1813</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1813</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1813</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1813</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1813</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-88FB-EE4E-B401-332EFC38C4B9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -773,372 +1028,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>单次</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>Call</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>的周期数</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$18:$A$23</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>async-up-min</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>async-smp-min</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>async-up-max</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>async-smp-max</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>sync-up</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>sync-smp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$18:$B$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>251</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1326</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1248</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>535</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1813</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-45CA-904A-B0E6-1632FE429FCB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="315"/>
-        <c:overlap val="-40"/>
-        <c:axId val="805892144"/>
-        <c:axId val="805889472"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="805892144"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="805889472"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="805889472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="805892144"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>用户态中断频率</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN"/>
@@ -1175,7 +1064,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.6208729582278979E-2"/>
+          <c:y val="0.1731895416218481"/>
+          <c:w val="0.93393895555058837"/>
+          <c:h val="0.77101603530606422"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -1184,7 +1083,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$3</c:f>
+              <c:f>qemu_ipc!$M$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1233,7 +1132,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$S$2</c:f>
+              <c:f>qemu_ipc!$N$2:$S$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1260,7 +1159,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$3:$S$3</c:f>
+              <c:f>qemu_ipc!$N$3:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1297,7 +1196,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$4</c:f>
+              <c:f>qemu_ipc!$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1346,7 +1245,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$S$2</c:f>
+              <c:f>qemu_ipc!$N$2:$S$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1373,7 +1272,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$4:$S$4</c:f>
+              <c:f>qemu_ipc!$N$4:$S$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1410,7 +1309,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$5</c:f>
+              <c:f>qemu_ipc!$M$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1459,7 +1358,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$S$2</c:f>
+              <c:f>qemu_ipc!$N$2:$S$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1486,7 +1385,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$5:$S$5</c:f>
+              <c:f>qemu_ipc!$N$5:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1523,7 +1422,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$6</c:f>
+              <c:f>qemu_ipc!$M$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1572,7 +1471,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$S$2</c:f>
+              <c:f>qemu_ipc!$N$2:$S$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1599,7 +1498,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$6:$S$6</c:f>
+              <c:f>qemu_ipc!$N$6:$S$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1845,7 +1744,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1924,7 +1823,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$3</c:f>
+              <c:f>qemu_net!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1973,7 +1872,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$G$2</c:f>
+              <c:f>qemu_net!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2000,7 +1899,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$3:$G$3</c:f>
+              <c:f>qemu_net!$B$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2037,7 +1936,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$4</c:f>
+              <c:f>qemu_net!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2086,7 +1985,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$G$2</c:f>
+              <c:f>qemu_net!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2113,7 +2012,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$4:$G$4</c:f>
+              <c:f>qemu_net!$B$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2150,7 +2049,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$5</c:f>
+              <c:f>qemu_net!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2199,7 +2098,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$G$2</c:f>
+              <c:f>qemu_net!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2226,7 +2125,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$5:$G$5</c:f>
+              <c:f>qemu_net!$B$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2263,7 +2162,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$6</c:f>
+              <c:f>qemu_net!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2312,7 +2211,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$G$2</c:f>
+              <c:f>qemu_net!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2339,7 +2238,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$6:$G$6</c:f>
+              <c:f>qemu_net!$B$6:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2586,7 +2485,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2669,7 +2568,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$22</c:f>
+              <c:f>qemu_net!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2718,7 +2617,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$21:$G$21</c:f>
+              <c:f>qemu_net!$B$21:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2745,7 +2644,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$22:$G$22</c:f>
+              <c:f>qemu_net!$B$22:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2782,7 +2681,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$23</c:f>
+              <c:f>qemu_net!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2831,7 +2730,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$21:$G$21</c:f>
+              <c:f>qemu_net!$B$21:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2858,7 +2757,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$23:$G$23</c:f>
+              <c:f>qemu_net!$B$23:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2895,7 +2794,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$24</c:f>
+              <c:f>qemu_net!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2944,7 +2843,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$21:$G$21</c:f>
+              <c:f>qemu_net!$B$21:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2971,7 +2870,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$24:$G$24</c:f>
+              <c:f>qemu_net!$B$24:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3008,7 +2907,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$25</c:f>
+              <c:f>qemu_net!$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3057,7 +2956,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$21:$G$21</c:f>
+              <c:f>qemu_net!$B$21:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3084,7 +2983,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$25:$G$25</c:f>
+              <c:f>qemu_net!$B$25:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3330,7 +3229,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -3409,7 +3308,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$56</c:f>
+              <c:f>qemu_net!$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3458,7 +3357,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$55:$G$55</c:f>
+              <c:f>qemu_net!$B$55:$G$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3485,7 +3384,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$56:$G$56</c:f>
+              <c:f>qemu_net!$B$56:$G$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3522,7 +3421,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$57</c:f>
+              <c:f>qemu_net!$A$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3571,7 +3470,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$55:$G$55</c:f>
+              <c:f>qemu_net!$B$55:$G$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3598,7 +3497,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$57:$G$57</c:f>
+              <c:f>qemu_net!$B$57:$G$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3635,7 +3534,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$58</c:f>
+              <c:f>qemu_net!$A$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3684,7 +3583,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$55:$G$55</c:f>
+              <c:f>qemu_net!$B$55:$G$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3711,7 +3610,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$58:$G$58</c:f>
+              <c:f>qemu_net!$B$58:$G$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3748,7 +3647,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$59</c:f>
+              <c:f>qemu_net!$A$59</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3797,7 +3696,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$55:$G$55</c:f>
+              <c:f>qemu_net!$B$55:$G$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3824,7 +3723,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$59:$G$59</c:f>
+              <c:f>qemu_net!$B$59:$G$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4070,7 +3969,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -4149,7 +4048,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$47</c:f>
+              <c:f>qemu_net!$A$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4198,7 +4097,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$46:$G$46</c:f>
+              <c:f>qemu_net!$B$46:$G$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4225,7 +4124,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$47:$G$47</c:f>
+              <c:f>qemu_net!$B$47:$G$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4262,7 +4161,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$48</c:f>
+              <c:f>qemu_net!$A$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4311,7 +4210,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$46:$G$46</c:f>
+              <c:f>qemu_net!$B$46:$G$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4338,7 +4237,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$48:$G$48</c:f>
+              <c:f>qemu_net!$B$48:$G$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4375,7 +4274,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$49</c:f>
+              <c:f>qemu_net!$A$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4424,7 +4323,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$46:$G$46</c:f>
+              <c:f>qemu_net!$B$46:$G$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4451,7 +4350,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$49:$G$49</c:f>
+              <c:f>qemu_net!$B$49:$G$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4488,7 +4387,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$50</c:f>
+              <c:f>qemu_net!$A$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4537,7 +4436,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$46:$G$46</c:f>
+              <c:f>qemu_net!$B$46:$G$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4564,7 +4463,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$50:$G$50</c:f>
+              <c:f>qemu_net!$B$50:$G$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5050,46 +4949,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
@@ -5629,7 +5488,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5829,7 +5688,7 @@
       </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -5942,27 +5801,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -5972,29 +5821,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -6164,7 +6001,18 @@
         <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -8329,558 +8177,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-            <a:alpha val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>113427</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>189239</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>645305</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>124112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>329618</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>96947</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>210214</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>31820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8907,52 +8217,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>617549</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>131071</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>671449</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>132988</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>581678</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>67863</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="图表 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83C43E0A-D6A0-5A41-8802-7516ABD0F2A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>31022</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>67861</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>649542</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>29083</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>465012</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>94210</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8971,7 +8245,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9426,18 +8700,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE31C07-FDF3-8D4E-AAE0-9812488F355C}">
-  <dimension ref="A2:S23"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="131" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScale="117" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19">
+    <row r="1" spans="1:27">
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -9486,8 +8769,29 @@
       <c r="S2">
         <v>32</v>
       </c>
+      <c r="U2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="X2">
+        <v>4</v>
+      </c>
+      <c r="Y2">
+        <v>8</v>
+      </c>
+      <c r="Z2">
+        <v>16</v>
+      </c>
+      <c r="AA2">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -9539,8 +8843,29 @@
         <f>0.0319</f>
         <v>3.1899999999999998E-2</v>
       </c>
+      <c r="U3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>0.50019999999999998</v>
+      </c>
+      <c r="X3">
+        <v>0.25040000000000001</v>
+      </c>
+      <c r="Y3">
+        <v>0.12520000000000001</v>
+      </c>
+      <c r="Z3">
+        <v>6.3E-2</v>
+      </c>
+      <c r="AA3">
+        <v>3.15E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -9590,8 +8915,56 @@
         <f>0.0319</f>
         <v>3.1899999999999998E-2</v>
       </c>
+      <c r="U4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>0.50060000000000004</v>
+      </c>
+      <c r="X4">
+        <v>0.25080000000000002</v>
+      </c>
+      <c r="Y4">
+        <v>0.1255</v>
+      </c>
+      <c r="Z4">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="AA4">
+        <v>3.2099999999999997E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:27">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>535</v>
+      </c>
+      <c r="C5">
+        <v>535</v>
+      </c>
+      <c r="D5">
+        <v>535</v>
+      </c>
+      <c r="E5">
+        <v>535</v>
+      </c>
+      <c r="F5">
+        <v>535</v>
+      </c>
+      <c r="G5">
+        <v>535</v>
+      </c>
+      <c r="H5">
+        <v>535</v>
+      </c>
+      <c r="I5">
+        <v>535</v>
+      </c>
       <c r="M5" t="s">
         <v>17</v>
       </c>
@@ -9613,8 +8986,56 @@
       <c r="S5">
         <v>0.42149999999999999</v>
       </c>
+      <c r="U5" t="s">
+        <v>17</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>0.50129999999999997</v>
+      </c>
+      <c r="X5">
+        <v>0.34320000000000001</v>
+      </c>
+      <c r="Y5">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="Z5">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="AA5">
+        <v>0.31259999999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:27">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1813</v>
+      </c>
+      <c r="C6">
+        <v>1813</v>
+      </c>
+      <c r="D6">
+        <v>1813</v>
+      </c>
+      <c r="E6">
+        <v>1813</v>
+      </c>
+      <c r="F6">
+        <v>1813</v>
+      </c>
+      <c r="G6">
+        <v>1813</v>
+      </c>
+      <c r="H6">
+        <v>1813</v>
+      </c>
+      <c r="I6">
+        <v>1813</v>
+      </c>
       <c r="M6" t="s">
         <v>18</v>
       </c>
@@ -9637,53 +9058,262 @@
       <c r="S6">
         <v>0.1065</v>
       </c>
+      <c r="U6" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>0.50029999999999997</v>
+      </c>
+      <c r="X6">
+        <v>0.27950000000000003</v>
+      </c>
+      <c r="Y6">
+        <v>0.18140000000000001</v>
+      </c>
+      <c r="Z6">
+        <v>0.11840000000000001</v>
+      </c>
+      <c r="AA6">
+        <v>0.1057</v>
+      </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>251</v>
+    <row r="9" spans="1:27">
+      <c r="M9" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>298</v>
+    <row r="10" spans="1:27">
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>4</v>
+      </c>
+      <c r="Q10">
+        <v>8</v>
+      </c>
+      <c r="R10">
+        <v>16</v>
+      </c>
+      <c r="S10">
+        <v>32</v>
+      </c>
+      <c r="U10" t="s">
+        <v>14</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>2</v>
+      </c>
+      <c r="X10">
+        <v>4</v>
+      </c>
+      <c r="Y10">
+        <v>8</v>
+      </c>
+      <c r="Z10">
+        <v>16</v>
+      </c>
+      <c r="AA10">
+        <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20">
-        <v>1326</v>
+    <row r="11" spans="1:27">
+      <c r="M11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0.5</v>
+      </c>
+      <c r="P11">
+        <v>0.25069999999999998</v>
+      </c>
+      <c r="Q11">
+        <v>0.12540000000000001</v>
+      </c>
+      <c r="R11">
+        <v>6.25E-2</v>
+      </c>
+      <c r="S11">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="U11" t="s">
+        <v>15</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>0.49980000000000002</v>
+      </c>
+      <c r="X11">
+        <v>0.24940000000000001</v>
+      </c>
+      <c r="Y11">
+        <v>0.12470000000000001</v>
+      </c>
+      <c r="Z11">
+        <v>6.1899999999999997E-2</v>
+      </c>
+      <c r="AA11">
+        <v>3.0800000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21">
-        <v>1248</v>
+    <row r="12" spans="1:27">
+      <c r="M12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0.50070000000000003</v>
+      </c>
+      <c r="P12">
+        <v>0.25119999999999998</v>
+      </c>
+      <c r="Q12">
+        <f>0.1261</f>
+        <v>0.12609999999999999</v>
+      </c>
+      <c r="R12">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="S12">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="U12" t="s">
+        <v>16</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>0.501</v>
+      </c>
+      <c r="X12">
+        <v>0.25119999999999998</v>
+      </c>
+      <c r="Y12">
+        <v>0.12690000000000001</v>
+      </c>
+      <c r="Z12">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="AA12">
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22">
-        <v>535</v>
+    <row r="13" spans="1:27">
+      <c r="M13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0.50170000000000003</v>
+      </c>
+      <c r="P13">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="Q13">
+        <v>0.1603</v>
+      </c>
+      <c r="R13">
+        <v>0.14050000000000001</v>
+      </c>
+      <c r="S13">
+        <f>0.1264</f>
+        <v>0.12640000000000001</v>
+      </c>
+      <c r="U13" t="s">
+        <v>17</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>0.52810000000000001</v>
+      </c>
+      <c r="X13">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="Y13">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23">
-        <v>1813</v>
+    <row r="14" spans="1:27">
+      <c r="M14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0.50209999999999999</v>
+      </c>
+      <c r="P14">
+        <v>0.28029999999999999</v>
+      </c>
+      <c r="Q14">
+        <f>0.145</f>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="R14">
+        <v>9.4600000000000004E-2</v>
+      </c>
+      <c r="S14">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="U14" t="s">
+        <v>18</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="X14">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="Y14">
+        <v>0.23710000000000001</v>
+      </c>
+      <c r="Z14">
+        <v>0.2354</v>
+      </c>
+      <c r="AA14">
+        <v>0.23180000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="13:13">
+      <c r="M24" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -9697,8 +9327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78717FEF-7D4F-0E48-A95B-BE4CC901AD51}">
   <dimension ref="A2:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView zoomScale="130" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10287,4 +9917,245 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6E50E1-FA69-4847-B614-76E5EFFC3D26}">
+  <dimension ref="A3:T8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>10257</v>
+      </c>
+      <c r="C4">
+        <v>7219</v>
+      </c>
+      <c r="D4">
+        <v>5132</v>
+      </c>
+      <c r="E4">
+        <v>4453</v>
+      </c>
+      <c r="F4">
+        <v>4029</v>
+      </c>
+      <c r="G4">
+        <v>3772</v>
+      </c>
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>8</v>
+      </c>
+      <c r="S4">
+        <v>16</v>
+      </c>
+      <c r="T4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>7309</v>
+      </c>
+      <c r="C5">
+        <v>5316</v>
+      </c>
+      <c r="D5">
+        <v>4517</v>
+      </c>
+      <c r="E5">
+        <v>4146</v>
+      </c>
+      <c r="F5">
+        <v>4228</v>
+      </c>
+      <c r="G5">
+        <v>4306</v>
+      </c>
+      <c r="N5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0.50780000000000003</v>
+      </c>
+      <c r="Q5">
+        <v>0.2485</v>
+      </c>
+      <c r="R5">
+        <v>0.1305</v>
+      </c>
+      <c r="S5">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="T5">
+        <v>3.6499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>2141</v>
+      </c>
+      <c r="C6">
+        <v>2141</v>
+      </c>
+      <c r="D6">
+        <v>2141</v>
+      </c>
+      <c r="E6">
+        <v>2141</v>
+      </c>
+      <c r="F6">
+        <v>2141</v>
+      </c>
+      <c r="G6">
+        <v>2141</v>
+      </c>
+      <c r="N6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="Q6">
+        <v>0.45889999999999997</v>
+      </c>
+      <c r="R6">
+        <v>0.30470000000000003</v>
+      </c>
+      <c r="S6">
+        <v>0.2077</v>
+      </c>
+      <c r="T6">
+        <v>0.1847</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>6283</v>
+      </c>
+      <c r="C7">
+        <v>6283</v>
+      </c>
+      <c r="D7">
+        <v>6283</v>
+      </c>
+      <c r="E7">
+        <v>6283</v>
+      </c>
+      <c r="F7">
+        <v>6283</v>
+      </c>
+      <c r="G7">
+        <v>6283</v>
+      </c>
+      <c r="N7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>0.68840000000000001</v>
+      </c>
+      <c r="Q7">
+        <v>0.83230000000000004</v>
+      </c>
+      <c r="R7">
+        <v>0.76590000000000003</v>
+      </c>
+      <c r="S7">
+        <v>0.78090000000000004</v>
+      </c>
+      <c r="T7">
+        <v>0.79601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="N8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0.77849999999999997</v>
+      </c>
+      <c r="Q8">
+        <v>0.47649999999999998</v>
+      </c>
+      <c r="R8">
+        <v>0.37130000000000002</v>
+      </c>
+      <c r="S8">
+        <v>0.39189000000000002</v>
+      </c>
+      <c r="T8">
+        <v>0.41113</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/开题/测试/IPC性能.xlsx
+++ b/开题/测试/IPC性能.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ctrlz/workSpace/openingreport-ldhai2023/开题/测试/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BECE94-3450-B946-9F72-16D6BF66BD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA131BF-7343-2348-9F4C-DDB1E98D7376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-4620" windowWidth="51200" windowHeight="26600" activeTab="2" xr2:uid="{DA4805F4-04B1-CA43-9DDD-E0DA8EA5F629}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" activeTab="2" xr2:uid="{DA4805F4-04B1-CA43-9DDD-E0DA8EA5F629}"/>
   </bookViews>
   <sheets>
     <sheet name="qemu_ipc" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="31">
   <si>
     <t>async-smp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,7 +130,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>smp server 8</t>
+    <t>并发 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并发 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并发 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并发 32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负载1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负载0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负载2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负载3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -933,6 +961,753 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>负载</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>0</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>的中断频率</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fpga_ipc!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>up_server</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fpga_ipc!$Q$3:$V$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fpga_ipc!$Q$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50029999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3399999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1899999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF89-CD42-A432-460DA8D35C47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fpga_ipc!$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>up_client</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fpga_ipc!$Q$3:$V$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fpga_ipc!$Q$5:$V$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50049999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3399999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1899999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AF89-CD42-A432-460DA8D35C47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fpga_ipc!$P$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>smp_server</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fpga_ipc!$Q$3:$V$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fpga_ipc!$Q$6:$V$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50170000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44230000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42559999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42149999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AF89-CD42-A432-460DA8D35C47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fpga_ipc!$P$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>smp_client</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fpga_ipc!$Q$3:$V$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fpga_ipc!$Q$7:$V$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50049999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10290000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AF89-CD42-A432-460DA8D35C47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="791602495"/>
+        <c:axId val="790854367"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="791602495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="790854367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="790854367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="791602495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="75000"/>
@@ -1777,6 +2552,706 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>中断频率</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>qemu_ipc!$M$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>并发 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>qemu_ipc!$N$25:$Q$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>负载0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>负载1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>负载2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>负载3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>qemu_ipc!$N$26:$Q$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.49690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37319999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14940000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-41CB-6742-88AE-7AF728758A2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>qemu_ipc!$M$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>并发 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>qemu_ipc!$N$25:$Q$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>负载0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>负载1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>负载2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>负载3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>qemu_ipc!$N$27:$Q$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.44230000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35709999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1603</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9999999999999998E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-41CB-6742-88AE-7AF728758A2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>qemu_ipc!$M$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>并发 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>qemu_ipc!$N$25:$Q$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>负载0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>负载1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>负载2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>负载3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>qemu_ipc!$N$28:$Q$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.42559999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-41CB-6742-88AE-7AF728758A2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>qemu_ipc!$M$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>并发 32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>qemu_ipc!$N$25:$Q$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>负载0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>负载1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>负载2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>负载3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>qemu_ipc!$N$29:$Q$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.42149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31259999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-41CB-6742-88AE-7AF728758A2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="957583808"/>
+        <c:axId val="957585488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="957583808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="957585488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="957585488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="957583808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17245674019314894"/>
+          <c:y val="0.1472017531844953"/>
+          <c:w val="0.57918950051394835"/>
+          <c:h val="6.9068379029464139E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
               <a:t>RPS(call)</a:t>
             </a:r>
@@ -2485,7 +3960,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -3229,7 +4704,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -3969,7 +5444,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -4709,7 +6184,1451 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fpga_ipc!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>async-up</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fpga_ipc!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fpga_ipc!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8920</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4458</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3746</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB7D-C746-88E0-D8950AEBE751}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fpga_ipc!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>async-smp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fpga_ipc!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fpga_ipc!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7419</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5618</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4219</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3639</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3198</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FB7D-C746-88E0-D8950AEBE751}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fpga_ipc!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sync-up</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fpga_ipc!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fpga_ipc!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2141</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2141</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2141</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2141</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2141</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FB7D-C746-88E0-D8950AEBE751}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fpga_ipc!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sync-smp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fpga_ipc!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fpga_ipc!$B$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6283</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6283</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6283</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6283</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6283</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6283</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FB7D-C746-88E0-D8950AEBE751}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="957609984"/>
+        <c:axId val="957630368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="957609984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="957630368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="957630368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="957609984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>中断频率</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fpga_ipc!$P$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>并发 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>fpga_ipc!$Q$22:$T$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>负载0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>负载1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>负载2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>负载3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fpga_ipc!$Q$23:$T$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.49690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37319999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14940000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E926-D04B-B986-F8F9AA4C17AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fpga_ipc!$P$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>并发 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>fpga_ipc!$Q$22:$T$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>负载0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>负载1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>负载2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>负载3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fpga_ipc!$Q$24:$T$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.44230000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35709999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1603</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9999999999999998E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E926-D04B-B986-F8F9AA4C17AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fpga_ipc!$P$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>并发 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>fpga_ipc!$Q$22:$T$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>负载0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>负载1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>负载2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>负载3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fpga_ipc!$Q$25:$T$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.42559999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E926-D04B-B986-F8F9AA4C17AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fpga_ipc!$P$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>并发 32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>fpga_ipc!$Q$22:$T$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>负载0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>负载1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>负载2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>负载3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fpga_ipc!$Q$26:$T$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.42149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31259999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E926-D04B-B986-F8F9AA4C17AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="791387807"/>
+        <c:axId val="1473146880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="791387807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1473146880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1473146880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="791387807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4949,6 +7868,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
@@ -5487,7 +8526,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6025,7 +9064,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6563,7 +9602,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7101,7 +10140,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7639,7 +10678,2159 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8188,9 +13379,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>210214</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>31820</xdr:rowOff>
+      <xdr:colOff>117231</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8217,16 +13408,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>671449</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>132988</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>465209</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>165552</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>465012</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>94210</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>258773</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>126774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8246,6 +13437,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>792393</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>32565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>109632</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>58182</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AB4FE3F-B714-D145-A3FF-884C683BF833}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8403,6 +13630,119 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>626404</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>126523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>461527</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>137663</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E611A44-D3FE-AA46-B6E5-E5E66A414F5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>707572</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>125185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>290287</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>116719</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E857857C-41B9-4841-9AA4-79655870A591}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>185662</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>713619</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>177195</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6290402-1D1B-6F48-A155-A6F581CB3D11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -8700,10 +14040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE31C07-FDF3-8D4E-AAE0-9812488F355C}">
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView zoomScale="117" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView zoomScale="75" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25:Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9251,7 +14591,7 @@
         <v>1</v>
       </c>
       <c r="W13">
-        <v>0.52810000000000001</v>
+        <v>0.5081</v>
       </c>
       <c r="X13">
         <v>0.14940000000000001</v>
@@ -9311,9 +14651,86 @@
         <v>0.23180000000000001</v>
       </c>
     </row>
-    <row r="24" spans="13:13">
-      <c r="M24" t="s">
+    <row r="25" spans="13:17">
+      <c r="N25" t="s">
+        <v>28</v>
+      </c>
+      <c r="O25" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="13:17">
+      <c r="M26" t="s">
         <v>23</v>
+      </c>
+      <c r="N26">
+        <v>0.49690000000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.37319999999999998</v>
+      </c>
+      <c r="P26">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="Q26">
+        <v>0.14940000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="13:17">
+      <c r="M27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27">
+        <v>0.44230000000000003</v>
+      </c>
+      <c r="O27">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="P27">
+        <v>0.1603</v>
+      </c>
+      <c r="Q27">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="13:17">
+      <c r="M28" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28">
+        <v>0.42559999999999998</v>
+      </c>
+      <c r="O28">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="P28">
+        <v>0.14050000000000001</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="13:17">
+      <c r="M29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29">
+        <v>0.42149999999999999</v>
+      </c>
+      <c r="O29">
+        <v>0.31259999999999999</v>
+      </c>
+      <c r="P29">
+        <v>0.12640000000000001</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9921,15 +15338,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6E50E1-FA69-4847-B614-76E5EFFC3D26}">
-  <dimension ref="A3:T8"/>
+  <dimension ref="A2:AD26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="1:20">
+    <row r="2" spans="1:30">
+      <c r="P2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -9951,99 +15376,193 @@
       <c r="G3">
         <v>32</v>
       </c>
-      <c r="N3" t="s">
-        <v>19</v>
+      <c r="H3">
+        <v>64</v>
+      </c>
+      <c r="P3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>8</v>
+      </c>
+      <c r="U3">
+        <v>16</v>
+      </c>
+      <c r="V3">
+        <v>32</v>
+      </c>
+      <c r="X3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>2</v>
+      </c>
+      <c r="AA3">
+        <v>4</v>
+      </c>
+      <c r="AB3">
+        <v>8</v>
+      </c>
+      <c r="AC3">
+        <v>16</v>
+      </c>
+      <c r="AD3">
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>10257</v>
+        <v>8920</v>
       </c>
       <c r="C4">
-        <v>7219</v>
+        <v>6004</v>
       </c>
       <c r="D4">
-        <v>5132</v>
+        <v>4458</v>
       </c>
       <c r="E4">
-        <v>4453</v>
+        <v>3746</v>
       </c>
       <c r="F4">
-        <v>4029</v>
+        <v>3332</v>
       </c>
       <c r="G4">
-        <v>3772</v>
-      </c>
-      <c r="N4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4">
+        <v>3111</v>
+      </c>
+      <c r="H4">
+        <v>2915</v>
+      </c>
+      <c r="P4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4">
         <v>1</v>
       </c>
-      <c r="P4">
-        <v>2</v>
-      </c>
-      <c r="Q4">
-        <v>4</v>
-      </c>
       <c r="R4">
-        <v>8</v>
+        <v>0.50029999999999997</v>
       </c>
       <c r="S4">
-        <v>16</v>
+        <v>0.25040000000000001</v>
       </c>
       <c r="T4">
-        <v>32</v>
+        <f>0.1256</f>
+        <v>0.12559999999999999</v>
+      </c>
+      <c r="U4">
+        <f>0.0634</f>
+        <v>6.3399999999999998E-2</v>
+      </c>
+      <c r="V4">
+        <f>0.0319</f>
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="X4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>0.50019999999999998</v>
+      </c>
+      <c r="AA4">
+        <v>0.25040000000000001</v>
+      </c>
+      <c r="AB4">
+        <v>0.12520000000000001</v>
+      </c>
+      <c r="AC4">
+        <v>6.3E-2</v>
+      </c>
+      <c r="AD4">
+        <v>3.15E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5">
-        <v>7309</v>
+        <v>7419</v>
       </c>
       <c r="C5">
-        <v>5316</v>
+        <v>5618</v>
       </c>
       <c r="D5">
-        <v>4517</v>
+        <v>4219</v>
       </c>
       <c r="E5">
-        <v>4146</v>
+        <v>3639</v>
       </c>
       <c r="F5">
-        <v>4228</v>
+        <v>3198</v>
       </c>
       <c r="G5">
-        <v>4306</v>
-      </c>
-      <c r="N5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5">
+        <v>3008</v>
+      </c>
+      <c r="H5">
+        <v>3010</v>
+      </c>
+      <c r="P5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5">
         <v>1</v>
       </c>
-      <c r="P5">
-        <v>0.50780000000000003</v>
-      </c>
-      <c r="Q5">
-        <v>0.2485</v>
-      </c>
       <c r="R5">
-        <v>0.1305</v>
+        <v>0.50049999999999994</v>
       </c>
       <c r="S5">
-        <v>7.8100000000000003E-2</v>
+        <v>0.25040000000000001</v>
       </c>
       <c r="T5">
-        <v>3.6499999999999998E-2</v>
+        <v>0.12559999999999999</v>
+      </c>
+      <c r="U5">
+        <v>6.3399999999999998E-2</v>
+      </c>
+      <c r="V5">
+        <f>0.0319</f>
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="X5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>0.50060000000000004</v>
+      </c>
+      <c r="AA5">
+        <v>0.25080000000000002</v>
+      </c>
+      <c r="AB5">
+        <v>0.1255</v>
+      </c>
+      <c r="AC5">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="AD5">
+        <v>3.2099999999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -10065,29 +15584,53 @@
       <c r="G6">
         <v>2141</v>
       </c>
-      <c r="N6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6">
+      <c r="H6">
+        <v>2141</v>
+      </c>
+      <c r="P6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6">
         <v>1</v>
       </c>
-      <c r="P6">
-        <v>0.74609999999999999</v>
-      </c>
-      <c r="Q6">
-        <v>0.45889999999999997</v>
-      </c>
       <c r="R6">
-        <v>0.30470000000000003</v>
+        <v>0.50170000000000003</v>
       </c>
       <c r="S6">
-        <v>0.2077</v>
+        <v>0.49690000000000001</v>
       </c>
       <c r="T6">
-        <v>0.1847</v>
+        <v>0.44230000000000003</v>
+      </c>
+      <c r="U6">
+        <v>0.42559999999999998</v>
+      </c>
+      <c r="V6">
+        <v>0.42149999999999999</v>
+      </c>
+      <c r="X6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>0.50129999999999997</v>
+      </c>
+      <c r="AA6">
+        <v>0.34320000000000001</v>
+      </c>
+      <c r="AB6">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="AC6">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="AD6">
+        <v>0.31259999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -10109,53 +15652,369 @@
       <c r="G7">
         <v>6283</v>
       </c>
-      <c r="N7" t="s">
+      <c r="H7">
+        <v>6283</v>
+      </c>
+      <c r="P7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>0.50049999999999994</v>
+      </c>
+      <c r="S7">
+        <v>0.31040000000000001</v>
+      </c>
+      <c r="T7">
+        <v>0.13189999999999999</v>
+      </c>
+      <c r="U7">
+        <f>0.1029</f>
+        <v>0.10290000000000001</v>
+      </c>
+      <c r="V7">
+        <v>0.1065</v>
+      </c>
+      <c r="X7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>0.50029999999999997</v>
+      </c>
+      <c r="AA7">
+        <v>0.27950000000000003</v>
+      </c>
+      <c r="AB7">
+        <v>0.18140000000000001</v>
+      </c>
+      <c r="AC7">
+        <v>0.11840000000000001</v>
+      </c>
+      <c r="AD7">
+        <v>0.1057</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="P10" t="s">
+        <v>21</v>
+      </c>
+      <c r="X10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="P11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <v>8</v>
+      </c>
+      <c r="U11">
+        <v>16</v>
+      </c>
+      <c r="V11">
+        <v>32</v>
+      </c>
+      <c r="X11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>2</v>
+      </c>
+      <c r="AA11">
+        <v>4</v>
+      </c>
+      <c r="AB11">
+        <v>8</v>
+      </c>
+      <c r="AC11">
+        <v>16</v>
+      </c>
+      <c r="AD11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="P12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>0.5</v>
+      </c>
+      <c r="S12">
+        <v>0.25069999999999998</v>
+      </c>
+      <c r="T12">
+        <v>0.12540000000000001</v>
+      </c>
+      <c r="U12">
+        <v>6.25E-2</v>
+      </c>
+      <c r="V12">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="X12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>0.49980000000000002</v>
+      </c>
+      <c r="AA12">
+        <v>0.24940000000000001</v>
+      </c>
+      <c r="AB12">
+        <v>0.12470000000000001</v>
+      </c>
+      <c r="AC12">
+        <v>6.1899999999999997E-2</v>
+      </c>
+      <c r="AD12">
+        <v>3.0800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="P13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>0.50070000000000003</v>
+      </c>
+      <c r="S13">
+        <v>0.25119999999999998</v>
+      </c>
+      <c r="T13">
+        <f>0.1261</f>
+        <v>0.12609999999999999</v>
+      </c>
+      <c r="U13">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="V13">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="X13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>0.501</v>
+      </c>
+      <c r="AA13">
+        <v>0.25119999999999998</v>
+      </c>
+      <c r="AB13">
+        <v>0.12690000000000001</v>
+      </c>
+      <c r="AC13">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="AD13">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="P14" t="s">
         <v>17</v>
       </c>
-      <c r="O7">
+      <c r="Q14">
         <v>1</v>
       </c>
-      <c r="P7">
-        <v>0.68840000000000001</v>
-      </c>
-      <c r="Q7">
-        <v>0.83230000000000004</v>
-      </c>
-      <c r="R7">
-        <v>0.76590000000000003</v>
-      </c>
-      <c r="S7">
-        <v>0.78090000000000004</v>
-      </c>
-      <c r="T7">
-        <v>0.79601</v>
+      <c r="R14">
+        <v>0.50170000000000003</v>
+      </c>
+      <c r="S14">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="T14">
+        <v>0.1603</v>
+      </c>
+      <c r="U14">
+        <v>0.14050000000000001</v>
+      </c>
+      <c r="V14">
+        <f>0.1264</f>
+        <v>0.12640000000000001</v>
+      </c>
+      <c r="X14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>0.5081</v>
+      </c>
+      <c r="AA14">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="AB14">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
-      <c r="N8" t="s">
+    <row r="15" spans="1:30">
+      <c r="P15" t="s">
         <v>18</v>
       </c>
-      <c r="O8">
+      <c r="Q15">
         <v>1</v>
       </c>
-      <c r="P8">
-        <v>0.77849999999999997</v>
-      </c>
-      <c r="Q8">
-        <v>0.47649999999999998</v>
-      </c>
-      <c r="R8">
-        <v>0.37130000000000002</v>
-      </c>
-      <c r="S8">
-        <v>0.39189000000000002</v>
-      </c>
-      <c r="T8">
-        <v>0.41113</v>
+      <c r="R15">
+        <v>0.50209999999999999</v>
+      </c>
+      <c r="S15">
+        <v>0.28029999999999999</v>
+      </c>
+      <c r="T15">
+        <f>0.145</f>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="U15">
+        <v>9.4600000000000004E-2</v>
+      </c>
+      <c r="V15">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="X15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="AA15">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="AB15">
+        <v>0.23710000000000001</v>
+      </c>
+      <c r="AC15">
+        <v>0.2354</v>
+      </c>
+      <c r="AD15">
+        <v>0.23180000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="16:20">
+      <c r="Q22" t="s">
+        <v>28</v>
+      </c>
+      <c r="R22" t="s">
+        <v>27</v>
+      </c>
+      <c r="S22" t="s">
+        <v>29</v>
+      </c>
+      <c r="T22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="16:20">
+      <c r="P23" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q23">
+        <v>0.49690000000000001</v>
+      </c>
+      <c r="R23">
+        <v>0.37319999999999998</v>
+      </c>
+      <c r="S23">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="T23">
+        <v>0.14940000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="16:20">
+      <c r="P24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24">
+        <v>0.44230000000000003</v>
+      </c>
+      <c r="R24">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="S24">
+        <v>0.1603</v>
+      </c>
+      <c r="T24">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="16:20">
+      <c r="P25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q25">
+        <v>0.42559999999999998</v>
+      </c>
+      <c r="R25">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="S25">
+        <v>0.14050000000000001</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="16:20">
+      <c r="P26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q26">
+        <v>0.42149999999999999</v>
+      </c>
+      <c r="R26">
+        <v>0.31259999999999999</v>
+      </c>
+      <c r="S26">
+        <v>0.12640000000000001</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/开题/测试/IPC性能.xlsx
+++ b/开题/测试/IPC性能.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ctrlz/workSpace/openingreport-ldhai2023/开题/测试/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA131BF-7343-2348-9F4C-DDB1E98D7376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBA1BE9-3730-3E4E-BED8-7325384A53FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" activeTab="2" xr2:uid="{DA4805F4-04B1-CA43-9DDD-E0DA8EA5F629}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="43">
   <si>
     <t>async-smp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,12 +161,59 @@
     <t>负载3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Server Phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLI Phase 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLI Phase 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fetch task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fill &amp; send msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get req</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>write reply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get reply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wake task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>sync-up-fp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -179,6 +226,31 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -205,9 +277,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1595,8 +1682,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1858,7 +1946,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>qemu_ipc!$M$3</c:f>
+              <c:f>qemu_ipc!$AM$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1907,7 +1995,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>qemu_ipc!$N$2:$S$2</c:f>
+              <c:f>qemu_ipc!$AN$15:$AS$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1934,7 +2022,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>qemu_ipc!$N$3:$S$3</c:f>
+              <c:f>qemu_ipc!$AN$16:$AS$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1971,7 +2059,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>qemu_ipc!$M$4</c:f>
+              <c:f>qemu_ipc!$AM$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2020,7 +2108,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>qemu_ipc!$N$2:$S$2</c:f>
+              <c:f>qemu_ipc!$AN$15:$AS$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2047,7 +2135,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>qemu_ipc!$N$4:$S$4</c:f>
+              <c:f>qemu_ipc!$AN$17:$AS$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2084,7 +2172,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>qemu_ipc!$M$5</c:f>
+              <c:f>qemu_ipc!$AM$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2133,7 +2221,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>qemu_ipc!$N$2:$S$2</c:f>
+              <c:f>qemu_ipc!$AN$15:$AS$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2160,7 +2248,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>qemu_ipc!$N$5:$S$5</c:f>
+              <c:f>qemu_ipc!$AN$18:$AS$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2197,7 +2285,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>qemu_ipc!$M$6</c:f>
+              <c:f>qemu_ipc!$AM$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2246,7 +2334,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>qemu_ipc!$N$2:$S$2</c:f>
+              <c:f>qemu_ipc!$AN$15:$AS$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2273,7 +2361,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>qemu_ipc!$N$6:$S$6</c:f>
+              <c:f>qemu_ipc!$AN$19:$AS$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2598,7 +2686,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>qemu_ipc!$M$26</c:f>
+              <c:f>qemu_ipc!$AM$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2647,7 +2735,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>qemu_ipc!$N$25:$Q$25</c:f>
+              <c:f>qemu_ipc!$AN$38:$AQ$38</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2667,7 +2755,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>qemu_ipc!$N$26:$Q$26</c:f>
+              <c:f>qemu_ipc!$AN$39:$AQ$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2698,7 +2786,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>qemu_ipc!$M$27</c:f>
+              <c:f>qemu_ipc!$AM$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2747,7 +2835,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>qemu_ipc!$N$25:$Q$25</c:f>
+              <c:f>qemu_ipc!$AN$38:$AQ$38</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2767,7 +2855,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>qemu_ipc!$N$27:$Q$27</c:f>
+              <c:f>qemu_ipc!$AN$40:$AQ$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2798,7 +2886,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>qemu_ipc!$M$28</c:f>
+              <c:f>qemu_ipc!$AM$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2847,7 +2935,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>qemu_ipc!$N$25:$Q$25</c:f>
+              <c:f>qemu_ipc!$AN$38:$AQ$38</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2867,7 +2955,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>qemu_ipc!$N$28:$Q$28</c:f>
+              <c:f>qemu_ipc!$AN$41:$AQ$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2898,7 +2986,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>qemu_ipc!$M$29</c:f>
+              <c:f>qemu_ipc!$AM$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2947,7 +3035,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>qemu_ipc!$N$25:$Q$25</c:f>
+              <c:f>qemu_ipc!$AN$38:$AQ$38</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2967,7 +3055,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>qemu_ipc!$N$29:$Q$29</c:f>
+              <c:f>qemu_ipc!$AN$42:$AQ$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6198,35 +6286,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -6287,10 +6346,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>fpga_ipc!$B$3:$G$3</c:f>
+              <c:f>fpga_ipc!$B$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -6308,33 +6367,39 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>fpga_ipc!$B$4:$G$4</c:f>
+              <c:f>fpga_ipc!$B$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8920</c:v>
+                  <c:v>6648</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6004</c:v>
+                  <c:v>3908</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4458</c:v>
+                  <c:v>2437</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3746</c:v>
+                  <c:v>1766</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3332</c:v>
+                  <c:v>1547</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3111</c:v>
+                  <c:v>1421</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6342,7 +6407,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FB7D-C746-88E0-D8950AEBE751}"/>
+              <c16:uniqueId val="{00000002-ECC1-4347-AF1B-106F62193857}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6400,10 +6465,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>fpga_ipc!$B$3:$G$3</c:f>
+              <c:f>fpga_ipc!$B$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -6421,33 +6486,39 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>fpga_ipc!$B$5:$G$5</c:f>
+              <c:f>fpga_ipc!$B$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7419</c:v>
+                  <c:v>6327</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5618</c:v>
+                  <c:v>3649</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4219</c:v>
+                  <c:v>2187</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3639</c:v>
+                  <c:v>1799</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3198</c:v>
+                  <c:v>1643</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3008</c:v>
+                  <c:v>1504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6455,7 +6526,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FB7D-C746-88E0-D8950AEBE751}"/>
+              <c16:uniqueId val="{00000003-ECC1-4347-AF1B-106F62193857}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6513,10 +6584,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>fpga_ipc!$B$3:$G$3</c:f>
+              <c:f>fpga_ipc!$B$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -6534,33 +6605,39 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>fpga_ipc!$B$6:$G$6</c:f>
+              <c:f>fpga_ipc!$B$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2141</c:v>
+                  <c:v>2868</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2141</c:v>
+                  <c:v>2868</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2141</c:v>
+                  <c:v>2868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2141</c:v>
+                  <c:v>2868</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2141</c:v>
+                  <c:v>2868</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2141</c:v>
+                  <c:v>2868</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6568,7 +6645,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FB7D-C746-88E0-D8950AEBE751}"/>
+              <c16:uniqueId val="{00000004-ECC1-4347-AF1B-106F62193857}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6581,7 +6658,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sync-smp</c:v>
+                  <c:v>sync-up-fp</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6626,10 +6703,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>fpga_ipc!$B$3:$G$3</c:f>
+              <c:f>fpga_ipc!$B$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -6647,33 +6724,39 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>fpga_ipc!$B$7:$G$7</c:f>
+              <c:f>fpga_ipc!$B$7:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6283</c:v>
+                  <c:v>2141</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6283</c:v>
+                  <c:v>2141</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6283</c:v>
+                  <c:v>2141</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6283</c:v>
+                  <c:v>2141</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6283</c:v>
+                  <c:v>2141</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6283</c:v>
+                  <c:v>2141</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6681,7 +6764,126 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FB7D-C746-88E0-D8950AEBE751}"/>
+              <c16:uniqueId val="{00000005-ECC1-4347-AF1B-106F62193857}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fpga_ipc!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sync-smp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent5">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fpga_ipc!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fpga_ipc!$B$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6283</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6283</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6283</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6283</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6283</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6283</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6283</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-ECC1-4347-AF1B-106F62193857}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7412,8 +7614,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -13373,15 +13576,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>645305</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>124112</xdr:rowOff>
+      <xdr:colOff>670705</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>187612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>117231</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>146538</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13408,15 +13611,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>465209</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>165552</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>258773</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>126774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13444,15 +13647,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>792393</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>32565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>109632</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>58182</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14040,10 +14243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE31C07-FDF3-8D4E-AAE0-9812488F355C}">
-  <dimension ref="A1:AA29"/>
+  <dimension ref="A2:BA42"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25:Q29"/>
+    <sheetView zoomScale="131" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AP12" sqref="AP12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14052,15 +14255,7 @@
     <col min="13" max="13" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
-      <c r="M1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:53">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -14088,50 +14283,8 @@
       <c r="I2">
         <v>128</v>
       </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-      <c r="P2">
-        <v>4</v>
-      </c>
-      <c r="Q2">
-        <v>8</v>
-      </c>
-      <c r="R2">
-        <v>16</v>
-      </c>
-      <c r="S2">
-        <v>32</v>
-      </c>
-      <c r="U2" t="s">
-        <v>14</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>2</v>
-      </c>
-      <c r="X2">
-        <v>4</v>
-      </c>
-      <c r="Y2">
-        <v>8</v>
-      </c>
-      <c r="Z2">
-        <v>16</v>
-      </c>
-      <c r="AA2">
-        <v>32</v>
-      </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:53">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -14159,577 +14312,637 @@
       <c r="I3">
         <v>251</v>
       </c>
-      <c r="M3" t="s">
+    </row>
+    <row r="4" spans="1:53">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1248</v>
+      </c>
+      <c r="C4">
+        <v>642</v>
+      </c>
+      <c r="D4">
+        <v>434</v>
+      </c>
+      <c r="E4">
+        <v>344</v>
+      </c>
+      <c r="F4">
+        <v>315</v>
+      </c>
+      <c r="G4">
+        <v>307</v>
+      </c>
+      <c r="H4">
+        <v>298</v>
+      </c>
+      <c r="I4">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>535</v>
+      </c>
+      <c r="C5">
+        <v>535</v>
+      </c>
+      <c r="D5">
+        <v>535</v>
+      </c>
+      <c r="E5">
+        <v>535</v>
+      </c>
+      <c r="F5">
+        <v>535</v>
+      </c>
+      <c r="G5">
+        <v>535</v>
+      </c>
+      <c r="H5">
+        <v>535</v>
+      </c>
+      <c r="I5">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1813</v>
+      </c>
+      <c r="C6">
+        <v>1813</v>
+      </c>
+      <c r="D6">
+        <v>1813</v>
+      </c>
+      <c r="E6">
+        <v>1813</v>
+      </c>
+      <c r="F6">
+        <v>1813</v>
+      </c>
+      <c r="G6">
+        <v>1813</v>
+      </c>
+      <c r="H6">
+        <v>1813</v>
+      </c>
+      <c r="I6">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53">
+      <c r="AM14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53">
+      <c r="AM15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
+        <v>2</v>
+      </c>
+      <c r="AP15">
+        <v>4</v>
+      </c>
+      <c r="AQ15">
+        <v>8</v>
+      </c>
+      <c r="AR15">
+        <v>16</v>
+      </c>
+      <c r="AS15">
+        <v>32</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV15">
+        <v>1</v>
+      </c>
+      <c r="AW15">
+        <v>2</v>
+      </c>
+      <c r="AX15">
+        <v>4</v>
+      </c>
+      <c r="AY15">
+        <v>8</v>
+      </c>
+      <c r="AZ15">
+        <v>16</v>
+      </c>
+      <c r="BA15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53">
+      <c r="AM16" t="s">
         <v>15</v>
       </c>
-      <c r="N3">
+      <c r="AN16">
         <v>1</v>
       </c>
-      <c r="O3">
+      <c r="AO16">
         <v>0.50029999999999997</v>
       </c>
-      <c r="P3">
+      <c r="AP16">
         <v>0.25040000000000001</v>
       </c>
-      <c r="Q3">
+      <c r="AQ16">
         <f>0.1256</f>
         <v>0.12559999999999999</v>
       </c>
-      <c r="R3">
+      <c r="AR16">
         <f>0.0634</f>
         <v>6.3399999999999998E-2</v>
       </c>
-      <c r="S3">
+      <c r="AS16">
         <f>0.0319</f>
         <v>3.1899999999999998E-2</v>
       </c>
-      <c r="U3" t="s">
+      <c r="AU16" t="s">
         <v>15</v>
       </c>
-      <c r="V3">
+      <c r="AV16">
         <v>1</v>
       </c>
-      <c r="W3">
+      <c r="AW16">
         <v>0.50019999999999998</v>
       </c>
-      <c r="X3">
+      <c r="AX16">
         <v>0.25040000000000001</v>
       </c>
-      <c r="Y3">
+      <c r="AY16">
         <v>0.12520000000000001</v>
       </c>
-      <c r="Z3">
+      <c r="AZ16">
         <v>6.3E-2</v>
       </c>
-      <c r="AA3">
+      <c r="BA16">
         <v>3.15E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>1248</v>
-      </c>
-      <c r="C4">
-        <v>642</v>
-      </c>
-      <c r="D4">
-        <v>434</v>
-      </c>
-      <c r="E4">
-        <v>344</v>
-      </c>
-      <c r="F4">
-        <v>315</v>
-      </c>
-      <c r="G4">
-        <v>307</v>
-      </c>
-      <c r="H4">
-        <v>298</v>
-      </c>
-      <c r="I4">
-        <v>298</v>
-      </c>
-      <c r="M4" t="s">
+    <row r="17" spans="39:53">
+      <c r="AM17" t="s">
         <v>16</v>
       </c>
-      <c r="N4">
+      <c r="AN17">
         <v>1</v>
       </c>
-      <c r="O4">
+      <c r="AO17">
         <v>0.50049999999999994</v>
       </c>
-      <c r="P4">
+      <c r="AP17">
         <v>0.25040000000000001</v>
       </c>
-      <c r="Q4">
+      <c r="AQ17">
         <v>0.12559999999999999</v>
       </c>
-      <c r="R4">
+      <c r="AR17">
         <v>6.3399999999999998E-2</v>
       </c>
-      <c r="S4">
+      <c r="AS17">
         <f>0.0319</f>
         <v>3.1899999999999998E-2</v>
       </c>
-      <c r="U4" t="s">
+      <c r="AU17" t="s">
         <v>16</v>
       </c>
-      <c r="V4">
+      <c r="AV17">
         <v>1</v>
       </c>
-      <c r="W4">
+      <c r="AW17">
         <v>0.50060000000000004</v>
       </c>
-      <c r="X4">
+      <c r="AX17">
         <v>0.25080000000000002</v>
       </c>
-      <c r="Y4">
+      <c r="AY17">
         <v>0.1255</v>
       </c>
-      <c r="Z4">
+      <c r="AZ17">
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="AA4">
+      <c r="BA17">
         <v>3.2099999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>535</v>
-      </c>
-      <c r="C5">
-        <v>535</v>
-      </c>
-      <c r="D5">
-        <v>535</v>
-      </c>
-      <c r="E5">
-        <v>535</v>
-      </c>
-      <c r="F5">
-        <v>535</v>
-      </c>
-      <c r="G5">
-        <v>535</v>
-      </c>
-      <c r="H5">
-        <v>535</v>
-      </c>
-      <c r="I5">
-        <v>535</v>
-      </c>
-      <c r="M5" t="s">
+    <row r="18" spans="39:53">
+      <c r="AM18" t="s">
         <v>17</v>
       </c>
-      <c r="N5">
+      <c r="AN18">
         <v>1</v>
       </c>
-      <c r="O5">
+      <c r="AO18">
         <v>0.50170000000000003</v>
       </c>
-      <c r="P5">
+      <c r="AP18">
         <v>0.49690000000000001</v>
       </c>
-      <c r="Q5">
+      <c r="AQ18">
         <v>0.44230000000000003</v>
       </c>
-      <c r="R5">
+      <c r="AR18">
         <v>0.42559999999999998</v>
       </c>
-      <c r="S5">
+      <c r="AS18">
         <v>0.42149999999999999</v>
       </c>
-      <c r="U5" t="s">
+      <c r="AU18" t="s">
         <v>17</v>
       </c>
-      <c r="V5">
+      <c r="AV18">
         <v>1</v>
       </c>
-      <c r="W5">
+      <c r="AW18">
         <v>0.50129999999999997</v>
       </c>
-      <c r="X5">
+      <c r="AX18">
         <v>0.34320000000000001</v>
       </c>
-      <c r="Y5">
+      <c r="AY18">
         <v>0.35709999999999997</v>
       </c>
-      <c r="Z5">
+      <c r="AZ18">
         <v>0.32619999999999999</v>
       </c>
-      <c r="AA5">
+      <c r="BA18">
         <v>0.31259999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>1813</v>
-      </c>
-      <c r="C6">
-        <v>1813</v>
-      </c>
-      <c r="D6">
-        <v>1813</v>
-      </c>
-      <c r="E6">
-        <v>1813</v>
-      </c>
-      <c r="F6">
-        <v>1813</v>
-      </c>
-      <c r="G6">
-        <v>1813</v>
-      </c>
-      <c r="H6">
-        <v>1813</v>
-      </c>
-      <c r="I6">
-        <v>1813</v>
-      </c>
-      <c r="M6" t="s">
+    <row r="19" spans="39:53">
+      <c r="AM19" t="s">
         <v>18</v>
       </c>
-      <c r="N6">
+      <c r="AN19">
         <v>1</v>
       </c>
-      <c r="O6">
+      <c r="AO19">
         <v>0.50049999999999994</v>
       </c>
-      <c r="P6">
+      <c r="AP19">
         <v>0.31040000000000001</v>
       </c>
-      <c r="Q6">
+      <c r="AQ19">
         <v>0.13189999999999999</v>
       </c>
-      <c r="R6">
+      <c r="AR19">
         <f>0.1029</f>
         <v>0.10290000000000001</v>
       </c>
-      <c r="S6">
+      <c r="AS19">
         <v>0.1065</v>
       </c>
-      <c r="U6" t="s">
+      <c r="AU19" t="s">
         <v>18</v>
       </c>
-      <c r="V6">
+      <c r="AV19">
         <v>1</v>
       </c>
-      <c r="W6">
+      <c r="AW19">
         <v>0.50029999999999997</v>
       </c>
-      <c r="X6">
+      <c r="AX19">
         <v>0.27950000000000003</v>
       </c>
-      <c r="Y6">
+      <c r="AY19">
         <v>0.18140000000000001</v>
       </c>
-      <c r="Z6">
+      <c r="AZ19">
         <v>0.11840000000000001</v>
       </c>
-      <c r="AA6">
+      <c r="BA19">
         <v>0.1057</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
-      <c r="M9" t="s">
+    <row r="22" spans="39:53">
+      <c r="AM22" t="s">
         <v>21</v>
       </c>
-      <c r="U9" t="s">
+      <c r="AU22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
-      <c r="M10" t="s">
+    <row r="23" spans="39:53">
+      <c r="AM23" t="s">
         <v>14</v>
       </c>
-      <c r="N10">
+      <c r="AN23">
         <v>1</v>
       </c>
-      <c r="O10">
+      <c r="AO23">
         <v>2</v>
       </c>
-      <c r="P10">
+      <c r="AP23">
         <v>4</v>
       </c>
-      <c r="Q10">
+      <c r="AQ23">
         <v>8</v>
       </c>
-      <c r="R10">
+      <c r="AR23">
         <v>16</v>
       </c>
-      <c r="S10">
+      <c r="AS23">
         <v>32</v>
       </c>
-      <c r="U10" t="s">
+      <c r="AU23" t="s">
         <v>14</v>
       </c>
-      <c r="V10">
+      <c r="AV23">
         <v>1</v>
       </c>
-      <c r="W10">
+      <c r="AW23">
         <v>2</v>
       </c>
-      <c r="X10">
+      <c r="AX23">
         <v>4</v>
       </c>
-      <c r="Y10">
+      <c r="AY23">
         <v>8</v>
       </c>
-      <c r="Z10">
+      <c r="AZ23">
         <v>16</v>
       </c>
-      <c r="AA10">
+      <c r="BA23">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
-      <c r="M11" t="s">
+    <row r="24" spans="39:53">
+      <c r="AM24" t="s">
         <v>15</v>
       </c>
-      <c r="N11">
+      <c r="AN24">
         <v>1</v>
       </c>
-      <c r="O11">
+      <c r="AO24">
         <v>0.5</v>
       </c>
-      <c r="P11">
+      <c r="AP24">
         <v>0.25069999999999998</v>
       </c>
-      <c r="Q11">
+      <c r="AQ24">
         <v>0.12540000000000001</v>
       </c>
-      <c r="R11">
+      <c r="AR24">
         <v>6.25E-2</v>
       </c>
-      <c r="S11">
+      <c r="AS24">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="U11" t="s">
+      <c r="AU24" t="s">
         <v>15</v>
       </c>
-      <c r="V11">
+      <c r="AV24">
         <v>1</v>
       </c>
-      <c r="W11">
+      <c r="AW24">
         <v>0.49980000000000002</v>
       </c>
-      <c r="X11">
+      <c r="AX24">
         <v>0.24940000000000001</v>
       </c>
-      <c r="Y11">
+      <c r="AY24">
         <v>0.12470000000000001</v>
       </c>
-      <c r="Z11">
+      <c r="AZ24">
         <v>6.1899999999999997E-2</v>
       </c>
-      <c r="AA11">
+      <c r="BA24">
         <v>3.0800000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
-      <c r="M12" t="s">
+    <row r="25" spans="39:53">
+      <c r="AM25" t="s">
         <v>16</v>
       </c>
-      <c r="N12">
+      <c r="AN25">
         <v>1</v>
       </c>
-      <c r="O12">
+      <c r="AO25">
         <v>0.50070000000000003</v>
       </c>
-      <c r="P12">
+      <c r="AP25">
         <v>0.25119999999999998</v>
       </c>
-      <c r="Q12">
+      <c r="AQ25">
         <f>0.1261</f>
         <v>0.12609999999999999</v>
       </c>
-      <c r="R12">
+      <c r="AR25">
         <v>6.3700000000000007E-2</v>
       </c>
-      <c r="S12">
+      <c r="AS25">
         <v>3.2300000000000002E-2</v>
       </c>
-      <c r="U12" t="s">
+      <c r="AU25" t="s">
         <v>16</v>
       </c>
-      <c r="V12">
+      <c r="AV25">
         <v>1</v>
       </c>
-      <c r="W12">
+      <c r="AW25">
         <v>0.501</v>
       </c>
-      <c r="X12">
+      <c r="AX25">
         <v>0.25119999999999998</v>
       </c>
-      <c r="Y12">
+      <c r="AY25">
         <v>0.12690000000000001</v>
       </c>
-      <c r="Z12">
+      <c r="AZ25">
         <v>6.4399999999999999E-2</v>
       </c>
-      <c r="AA12">
+      <c r="BA25">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
-      <c r="M13" t="s">
+    <row r="26" spans="39:53">
+      <c r="AM26" t="s">
         <v>17</v>
       </c>
-      <c r="N13">
+      <c r="AN26">
         <v>1</v>
       </c>
-      <c r="O13">
+      <c r="AO26">
         <v>0.50170000000000003</v>
       </c>
-      <c r="P13">
+      <c r="AP26">
         <v>0.27400000000000002</v>
       </c>
-      <c r="Q13">
+      <c r="AQ26">
         <v>0.1603</v>
       </c>
-      <c r="R13">
+      <c r="AR26">
         <v>0.14050000000000001</v>
       </c>
-      <c r="S13">
+      <c r="AS26">
         <f>0.1264</f>
         <v>0.12640000000000001</v>
       </c>
-      <c r="U13" t="s">
+      <c r="AU26" t="s">
         <v>17</v>
       </c>
-      <c r="V13">
+      <c r="AV26">
         <v>1</v>
       </c>
-      <c r="W13">
+      <c r="AW26">
         <v>0.5081</v>
       </c>
-      <c r="X13">
+      <c r="AX26">
         <v>0.14940000000000001</v>
       </c>
-      <c r="Y13">
+      <c r="AY26">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="Z13">
+      <c r="AZ26">
         <v>0</v>
       </c>
-      <c r="AA13">
+      <c r="BA26">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
-      <c r="M14" t="s">
+    <row r="27" spans="39:53">
+      <c r="AM27" t="s">
         <v>18</v>
       </c>
-      <c r="N14">
+      <c r="AN27">
         <v>1</v>
       </c>
-      <c r="O14">
+      <c r="AO27">
         <v>0.50209999999999999</v>
       </c>
-      <c r="P14">
+      <c r="AP27">
         <v>0.28029999999999999</v>
       </c>
-      <c r="Q14">
+      <c r="AQ27">
         <f>0.145</f>
         <v>0.14499999999999999</v>
       </c>
-      <c r="R14">
+      <c r="AR27">
         <v>9.4600000000000004E-2</v>
       </c>
-      <c r="S14">
+      <c r="AS27">
         <v>6.6799999999999998E-2</v>
       </c>
-      <c r="U14" t="s">
+      <c r="AU27" t="s">
         <v>18</v>
       </c>
-      <c r="V14">
+      <c r="AV27">
         <v>1</v>
       </c>
-      <c r="W14">
+      <c r="AW27">
         <v>0.63700000000000001</v>
       </c>
-      <c r="X14">
+      <c r="AX27">
         <v>0.40899999999999997</v>
       </c>
-      <c r="Y14">
+      <c r="AY27">
         <v>0.23710000000000001</v>
       </c>
-      <c r="Z14">
+      <c r="AZ27">
         <v>0.2354</v>
       </c>
-      <c r="AA14">
+      <c r="BA27">
         <v>0.23180000000000001</v>
       </c>
     </row>
-    <row r="25" spans="13:17">
-      <c r="N25" t="s">
+    <row r="38" spans="39:43">
+      <c r="AN38" t="s">
         <v>28</v>
       </c>
-      <c r="O25" t="s">
+      <c r="AO38" t="s">
         <v>27</v>
       </c>
-      <c r="P25" t="s">
+      <c r="AP38" t="s">
         <v>29</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="AQ38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="13:17">
-      <c r="M26" t="s">
+    <row r="39" spans="39:43">
+      <c r="AM39" t="s">
         <v>23</v>
       </c>
-      <c r="N26">
+      <c r="AN39">
         <v>0.49690000000000001</v>
       </c>
-      <c r="O26">
+      <c r="AO39">
         <v>0.37319999999999998</v>
       </c>
-      <c r="P26">
+      <c r="AP39">
         <v>0.27400000000000002</v>
       </c>
-      <c r="Q26">
+      <c r="AQ39">
         <v>0.14940000000000001</v>
       </c>
     </row>
-    <row r="27" spans="13:17">
-      <c r="M27" t="s">
+    <row r="40" spans="39:43">
+      <c r="AM40" t="s">
         <v>24</v>
       </c>
-      <c r="N27">
+      <c r="AN40">
         <v>0.44230000000000003</v>
       </c>
-      <c r="O27">
+      <c r="AO40">
         <v>0.35709999999999997</v>
       </c>
-      <c r="P27">
+      <c r="AP40">
         <v>0.1603</v>
       </c>
-      <c r="Q27">
+      <c r="AQ40">
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="28" spans="13:17">
-      <c r="M28" t="s">
+    <row r="41" spans="39:43">
+      <c r="AM41" t="s">
         <v>25</v>
       </c>
-      <c r="N28">
+      <c r="AN41">
         <v>0.42559999999999998</v>
       </c>
-      <c r="O28">
+      <c r="AO41">
         <v>0.32619999999999999</v>
       </c>
-      <c r="P28">
+      <c r="AP41">
         <v>0.14050000000000001</v>
       </c>
-      <c r="Q28">
+      <c r="AQ41">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="13:17">
-      <c r="M29" t="s">
+    <row r="42" spans="39:43">
+      <c r="AM42" t="s">
         <v>26</v>
       </c>
-      <c r="N29">
+      <c r="AN42">
         <v>0.42149999999999999</v>
       </c>
-      <c r="O29">
+      <c r="AO42">
         <v>0.31259999999999999</v>
       </c>
-      <c r="P29">
+      <c r="AP42">
         <v>0.12640000000000001</v>
       </c>
-      <c r="Q29">
+      <c r="AQ42">
         <v>0</v>
       </c>
     </row>
@@ -15338,13 +15551,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6E50E1-FA69-4847-B614-76E5EFFC3D26}">
-  <dimension ref="A2:AD26"/>
+  <dimension ref="A2:AD59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:30">
       <c r="P2" t="s">
@@ -15427,25 +15644,25 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>8920</v>
+        <v>6648</v>
       </c>
       <c r="C4">
-        <v>6004</v>
+        <v>3908</v>
       </c>
       <c r="D4">
-        <v>4458</v>
+        <v>2437</v>
       </c>
       <c r="E4">
-        <v>3746</v>
+        <v>1766</v>
       </c>
       <c r="F4">
-        <v>3332</v>
+        <v>1547</v>
       </c>
       <c r="G4">
-        <v>3111</v>
+        <v>1421</v>
       </c>
       <c r="H4">
-        <v>2915</v>
+        <v>1358</v>
       </c>
       <c r="P4" t="s">
         <v>15</v>
@@ -15498,25 +15715,25 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>7419</v>
+        <v>6327</v>
       </c>
       <c r="C5">
-        <v>5618</v>
+        <v>3649</v>
       </c>
       <c r="D5">
-        <v>4219</v>
+        <v>2187</v>
       </c>
       <c r="E5">
-        <v>3639</v>
+        <v>1799</v>
       </c>
       <c r="F5">
-        <v>3198</v>
+        <v>1643</v>
       </c>
       <c r="G5">
-        <v>3008</v>
+        <v>1504</v>
       </c>
       <c r="H5">
-        <v>3010</v>
+        <v>1517</v>
       </c>
       <c r="P5" t="s">
         <v>16</v>
@@ -15567,25 +15784,25 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>2141</v>
+        <v>2868</v>
       </c>
       <c r="C6">
-        <v>2141</v>
+        <v>2868</v>
       </c>
       <c r="D6">
-        <v>2141</v>
+        <v>2868</v>
       </c>
       <c r="E6">
-        <v>2141</v>
+        <v>2868</v>
       </c>
       <c r="F6">
-        <v>2141</v>
+        <v>2868</v>
       </c>
       <c r="G6">
-        <v>2141</v>
+        <v>2868</v>
       </c>
       <c r="H6">
-        <v>2141</v>
+        <v>2868</v>
       </c>
       <c r="P6" t="s">
         <v>17</v>
@@ -15632,28 +15849,28 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B7">
-        <v>6283</v>
+        <v>2141</v>
       </c>
       <c r="C7">
-        <v>6283</v>
+        <v>2141</v>
       </c>
       <c r="D7">
-        <v>6283</v>
+        <v>2141</v>
       </c>
       <c r="E7">
-        <v>6283</v>
+        <v>2141</v>
       </c>
       <c r="F7">
-        <v>6283</v>
+        <v>2141</v>
       </c>
       <c r="G7">
-        <v>6283</v>
+        <v>2141</v>
       </c>
       <c r="H7">
-        <v>6283</v>
+        <v>2141</v>
       </c>
       <c r="P7" t="s">
         <v>18</v>
@@ -15697,6 +15914,32 @@
       </c>
       <c r="AD7">
         <v>0.1057</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>6283</v>
+      </c>
+      <c r="C8">
+        <v>6283</v>
+      </c>
+      <c r="D8">
+        <v>6283</v>
+      </c>
+      <c r="E8">
+        <v>6283</v>
+      </c>
+      <c r="F8">
+        <v>6283</v>
+      </c>
+      <c r="G8">
+        <v>6283</v>
+      </c>
+      <c r="H8">
+        <v>6283</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -16012,7 +16255,121 @@
         <v>0</v>
       </c>
     </row>
+    <row r="49" spans="1:4">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="4"/>
+      <c r="B51" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1009</v>
+      </c>
+      <c r="D51">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="4"/>
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="5"/>
+      <c r="B55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="5"/>
+      <c r="B56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="5"/>
+      <c r="B57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="3">
+        <v>661</v>
+      </c>
+      <c r="D57">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="B58" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58">
+        <v>2539</v>
+      </c>
+      <c r="D58">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="B59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59">
+        <v>2815</v>
+      </c>
+      <c r="D59">
+        <v>1358</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A57"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
